--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -39,10 +39,10 @@
     <t>e</t>
   </si>
   <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>d2</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -39,10 +39,10 @@
     <t>e</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>f2</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>f2</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>g4</t>
   </si>
 </sst>
 </file>
@@ -361,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +397,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -42,13 +42,10 @@
     <t>d2</t>
   </si>
   <si>
-    <t>f2</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>g4</t>
+    <t>f3</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,15 +393,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -39,13 +39,13 @@
     <t>e</t>
   </si>
   <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
     <t>f3</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,15 +393,15 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -45,7 +45,10 @@
     <t>f3</t>
   </si>
   <si>
-    <t>d</t>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -42,13 +42,13 @@
     <t>g</t>
   </si>
   <si>
-    <t>f3</t>
-  </si>
-  <si>
     <t>g4</t>
   </si>
   <si>
-    <t>d2</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>a</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +408,14 @@
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -51,7 +51,7 @@
     <t>f</t>
   </si>
   <si>
-    <t>s</t>
+    <t>1s</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -39,19 +39,10 @@
     <t>e</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>g4</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>f</t>
-  </si>
-  <si>
-    <t>1s</t>
   </si>
 </sst>
 </file>
@@ -370,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -399,23 +390,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +391,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -36,13 +36,7 @@
     <t>c</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -361,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,23 +376,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -30,13 +30,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>d</t>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>d2</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,12 +368,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/DataTables/Book7.xlsx
+++ b/DataTables/Book7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qc\views\git\data_tables\UftTests\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azarr\Desktop\regression\Git\UftTests\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>a</t>
   </si>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -371,11 +371,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -392,7 +408,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
